--- a/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
+++ b/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\commerical-Vs-printed-comparison\data-taking-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,10 @@
         <v>198.8</v>
       </c>
       <c r="D3">
-        <v>-1000</v>
+        <v>1030</v>
+      </c>
+      <c r="E3">
+        <v>1000.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -401,6 +404,12 @@
       <c r="B4">
         <v>200.5</v>
       </c>
+      <c r="D4">
+        <v>1030</v>
+      </c>
+      <c r="E4">
+        <v>101.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -409,6 +418,12 @@
       <c r="B5">
         <v>200.7</v>
       </c>
+      <c r="D5">
+        <v>1030</v>
+      </c>
+      <c r="E5">
+        <v>101.6</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -530,7 +545,21 @@
         <v>200.5</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>310</v>
+      </c>
+      <c r="B22">
+        <v>299.10000000000002</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>310</v>
+      </c>
+      <c r="B23">
+        <v>300.39999999999998</v>
+      </c>
       <c r="D23">
         <v>100</v>
       </c>
@@ -539,6 +568,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>310</v>
+      </c>
+      <c r="B24">
+        <v>299.5</v>
+      </c>
       <c r="D24">
         <v>100</v>
       </c>

--- a/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
+++ b/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\commerical-Vs-printed-comparison\data-taking-raw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="9045"/>
+    <workbookView xWindow="5480" yWindow="0" windowWidth="18260" windowHeight="13040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -37,17 +36,52 @@
   <si>
     <t>Weight (g)</t>
   </si>
+  <si>
+    <t>1ml</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>3ml</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,13 +102,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="35">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -88,6 +191,427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1mL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$31:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.73686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.54064000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.48734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.8054000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2082008920"/>
+        <c:axId val="2080923656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2082008920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080923656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2080923656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082008920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3mL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$31:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.94502000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201.7638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.8723199999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502.10076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004.971100000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2082536408"/>
+        <c:axId val="2083442712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2082536408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083442712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2083442712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082536408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +692,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,13 +879,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -369,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -383,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>205</v>
       </c>
@@ -397,7 +921,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>205</v>
       </c>
@@ -411,7 +935,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>205</v>
       </c>
@@ -425,7 +949,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>50</v>
       </c>
@@ -439,7 +963,7 @@
         <v>500.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>50</v>
       </c>
@@ -453,7 +977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>50</v>
       </c>
@@ -467,7 +991,7 @@
         <v>500.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>20</v>
       </c>
@@ -481,7 +1005,7 @@
         <v>299.10000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>19.5</v>
       </c>
@@ -492,7 +1016,7 @@
         <v>299.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>19.2</v>
       </c>
@@ -503,7 +1027,7 @@
         <v>300.39999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10</v>
       </c>
@@ -517,7 +1041,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>10</v>
       </c>
@@ -531,7 +1055,7 @@
         <v>202.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>10</v>
       </c>
@@ -545,20 +1069,12 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>310</v>
-      </c>
-      <c r="B22">
-        <v>299.10000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>310</v>
       </c>
       <c r="B23">
-        <v>300.39999999999998</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -567,12 +1083,12 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>310</v>
       </c>
       <c r="B24">
-        <v>299.5</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -581,7 +1097,13 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>310</v>
+      </c>
+      <c r="B25">
+        <v>299.5</v>
+      </c>
       <c r="D25">
         <v>100</v>
       </c>
@@ -591,5 +1113,457 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>205</v>
+      </c>
+      <c r="B3">
+        <v>198.8</v>
+      </c>
+      <c r="C3">
+        <v>1030</v>
+      </c>
+      <c r="D3">
+        <v>1000.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>205</v>
+      </c>
+      <c r="B4">
+        <v>200.5</v>
+      </c>
+      <c r="C4">
+        <v>1030</v>
+      </c>
+      <c r="D4">
+        <v>1001.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>205</v>
+      </c>
+      <c r="B5">
+        <v>200.7</v>
+      </c>
+      <c r="C5">
+        <v>1030</v>
+      </c>
+      <c r="D5">
+        <v>1001.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <f>AVERAGE(A3:A5)</f>
+        <v>205</v>
+      </c>
+      <c r="B6" s="1">
+        <f>AVERAGE(B3:B5)</f>
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:D6" si="0">AVERAGE(C3:C5)</f>
+        <v>1030</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1001.1666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>525</v>
+      </c>
+      <c r="D8">
+        <v>500.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>49.7</v>
+      </c>
+      <c r="C9">
+        <v>525</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>49.2</v>
+      </c>
+      <c r="C10">
+        <v>525</v>
+      </c>
+      <c r="D10">
+        <v>500.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <f>AVERAGE(A8:A10)</f>
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:D11" si="1">AVERAGE(B8:B10)</f>
+        <v>49.300000000000004</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>500.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>19.7</v>
+      </c>
+      <c r="C13">
+        <v>310</v>
+      </c>
+      <c r="D13">
+        <v>299.10000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>19.5</v>
+      </c>
+      <c r="C14">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>299.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>19.2</v>
+      </c>
+      <c r="C15">
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <v>300.39999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <f>AVERAGE(A13:A15)</f>
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:D16" si="2">AVERAGE(B13:B15)</f>
+        <v>19.466666666666669</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>299.73333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C18">
+        <v>205</v>
+      </c>
+      <c r="D18">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9.6</v>
+      </c>
+      <c r="C19">
+        <v>205</v>
+      </c>
+      <c r="D19">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C20">
+        <v>205</v>
+      </c>
+      <c r="D20">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f>AVERAGE(A18:A20)</f>
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:D21" si="3">AVERAGE(B18:B20)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>310</v>
+      </c>
+      <c r="B23">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>310</v>
+      </c>
+      <c r="B24">
+        <v>300.39999999999998</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>310</v>
+      </c>
+      <c r="B25">
+        <v>299.5</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <f>AVERAGE(A23:A25)</f>
+        <v>310</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:D26" si="4">AVERAGE(B23:B25)</f>
+        <v>299.66666666666669</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>99.566666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <f>9.7*1.0038</f>
+        <v>9.7368600000000001</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f>1.0038*99.5666666666667</f>
+        <v>99.945020000000042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f>19.4666666666667*1.0038</f>
+        <v>19.540640000000035</v>
+      </c>
+      <c r="C32">
+        <v>205</v>
+      </c>
+      <c r="D32">
+        <f>1.0038*201</f>
+        <v>201.7638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <f>49.3*1.0038</f>
+        <v>49.487339999999996</v>
+      </c>
+      <c r="C33">
+        <v>310</v>
+      </c>
+      <c r="D33">
+        <f>1.0038*299.733333333333</f>
+        <v>300.87231999999966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>205</v>
+      </c>
+      <c r="B34">
+        <f>200*1.0038</f>
+        <v>200.76</v>
+      </c>
+      <c r="C34">
+        <v>525</v>
+      </c>
+      <c r="D34">
+        <f>1.0038*500.2</f>
+        <v>502.10075999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>310</v>
+      </c>
+      <c r="B35">
+        <f>299.666666666667*1.0038</f>
+        <v>300.80540000000036</v>
+      </c>
+      <c r="C35">
+        <v>1030</v>
+      </c>
+      <c r="D35">
+        <f>1.0038*1001.16666666667</f>
+        <v>1004.9711000000034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
+++ b/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="0" windowWidth="18260" windowHeight="13040" activeTab="1"/>
+    <workbookView xWindow="2860" yWindow="0" windowWidth="20360" windowHeight="13800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Shee1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -237,7 +236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$30</c:f>
+              <c:f>Shee1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -263,7 +262,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$31:$A$35</c:f>
+              <c:f>Shee1!$A$31:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -287,7 +286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$31:$B$35</c:f>
+              <c:f>Shee1!$B$31:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -319,11 +318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082008920"/>
-        <c:axId val="2080923656"/>
+        <c:axId val="2103421320"/>
+        <c:axId val="2103424136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082008920"/>
+        <c:axId val="2103421320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,12 +332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080923656"/>
+        <c:crossAx val="2103424136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080923656"/>
+        <c:axId val="2103424136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082008920"/>
+        <c:crossAx val="2103421320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -415,7 +414,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$30</c:f>
+              <c:f>Shee1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -441,7 +440,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$31:$C$35</c:f>
+              <c:f>Shee1!$C$31:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -465,7 +464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$31:$D$35</c:f>
+              <c:f>Shee1!$D$31:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -497,11 +496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082536408"/>
-        <c:axId val="2083442712"/>
+        <c:axId val="2102620616"/>
+        <c:axId val="2102617800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082536408"/>
+        <c:axId val="2102620616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,12 +510,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083442712"/>
+        <c:crossAx val="2102617800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083442712"/>
+        <c:axId val="2102617800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082536408"/>
+        <c:crossAx val="2102620616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -554,15 +553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -584,15 +583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -869,7 +868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,257 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>205</v>
-      </c>
-      <c r="B3">
-        <v>198.8</v>
-      </c>
-      <c r="D3">
-        <v>1030</v>
-      </c>
-      <c r="E3">
-        <v>1000.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>205</v>
-      </c>
-      <c r="B4">
-        <v>200.5</v>
-      </c>
-      <c r="D4">
-        <v>1030</v>
-      </c>
-      <c r="E4">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>205</v>
-      </c>
-      <c r="B5">
-        <v>200.7</v>
-      </c>
-      <c r="D5">
-        <v>1030</v>
-      </c>
-      <c r="E5">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>525</v>
-      </c>
-      <c r="E8">
-        <v>500.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>49.7</v>
-      </c>
-      <c r="D9">
-        <v>525</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>49.2</v>
-      </c>
-      <c r="D10">
-        <v>525</v>
-      </c>
-      <c r="E10">
-        <v>500.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>19.7</v>
-      </c>
-      <c r="D13">
-        <v>310</v>
-      </c>
-      <c r="E13">
-        <v>299.10000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14">
-        <v>19.5</v>
-      </c>
-      <c r="D14">
-        <v>310</v>
-      </c>
-      <c r="E14">
-        <v>299.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>19.2</v>
-      </c>
-      <c r="D15">
-        <v>310</v>
-      </c>
-      <c r="E15">
-        <v>300.39999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D18">
-        <v>205</v>
-      </c>
-      <c r="E18">
-        <v>199.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>9.6</v>
-      </c>
-      <c r="D19">
-        <v>205</v>
-      </c>
-      <c r="E19">
-        <v>202.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D20">
-        <v>205</v>
-      </c>
-      <c r="E20">
-        <v>200.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>310</v>
-      </c>
-      <c r="B23">
-        <v>299.10000000000002</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>310</v>
-      </c>
-      <c r="B24">
-        <v>300.39999999999998</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
-        <v>101.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>310</v>
-      </c>
-      <c r="B25">
-        <v>299.5</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <v>99.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
+++ b/data/commerical-Vs-printed-comparison/data-taking-raw/reading_vs_weight160225.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\commerical-Vs-printed-comparison\data-taking-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="0" windowWidth="20360" windowHeight="13800"/>
+    <workbookView xWindow="2865" yWindow="0" windowWidth="20355" windowHeight="13800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t xml:space="preserve">Reading </t>
   </si>
@@ -46,6 +52,18 @@
   </si>
   <si>
     <t>3ml</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Distance Amount</t>
+  </si>
+  <si>
+    <t>Distance Travel</t>
   </si>
 </sst>
 </file>
@@ -138,9 +156,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -222,7 +241,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -252,11 +270,10 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0.0"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -267,19 +284,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,19 +308,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.73686</c:v>
+                  <c:v>9.7368600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.54064000000004</c:v>
+                  <c:v>19.540640000000035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.48734</c:v>
+                  <c:v>49.487339999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.8054000000004</c:v>
+                  <c:v>300.80540000000036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,11 +335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103421320"/>
-        <c:axId val="2103424136"/>
+        <c:axId val="-378886896"/>
+        <c:axId val="-378885808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103421320"/>
+        <c:axId val="-378886896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103424136"/>
+        <c:crossAx val="-378885808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103424136"/>
+        <c:axId val="-378885808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,14 +365,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103421320"/>
+        <c:crossAx val="-378886896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -364,7 +380,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -400,7 +416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -430,11 +445,10 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0.0"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -445,19 +459,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205.0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>525.0</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1030.0</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,19 +483,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>99.94502000000004</c:v>
+                  <c:v>99.945020000000042</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>201.7638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.8723199999997</c:v>
+                  <c:v>300.87231999999966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502.10076</c:v>
+                  <c:v>502.10075999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1004.971100000003</c:v>
+                  <c:v>1004.9711000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,11 +510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102620616"/>
-        <c:axId val="2102617800"/>
+        <c:axId val="-378884720"/>
+        <c:axId val="-378894512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102620616"/>
+        <c:axId val="-378884720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,12 +524,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102617800"/>
+        <c:crossAx val="-378894512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102617800"/>
+        <c:axId val="-378894512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,14 +540,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102620616"/>
+        <c:crossAx val="-378884720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -542,7 +555,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -868,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,13 +891,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -892,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -906,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>205</v>
       </c>
@@ -920,7 +933,7 @@
         <v>1000.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>205</v>
       </c>
@@ -934,7 +947,7 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>205</v>
       </c>
@@ -948,7 +961,7 @@
         <v>1001.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>AVERAGE(A3:A5)</f>
         <v>205</v>
@@ -966,7 +979,7 @@
         <v>1001.1666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -980,7 +993,7 @@
         <v>500.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>500.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>AVERAGE(A8:A10)</f>
         <v>50</v>
@@ -1026,7 +1039,7 @@
         <v>500.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>299.10000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1054,7 +1067,7 @@
         <v>299.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>300.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>AVERAGE(A13:A15)</f>
         <v>20</v>
@@ -1086,7 +1099,7 @@
         <v>299.73333333333329</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>202.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>AVERAGE(A18:A20)</f>
         <v>10</v>
@@ -1146,7 +1159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>310</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>310</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>310</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>AVERAGE(A23:A25)</f>
         <v>310</v>
@@ -1206,7 +1219,7 @@
         <v>99.566666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>99.945020000000042</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>201.7638</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1276,7 +1289,7 @@
         <v>300.87231999999966</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>205</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>502.10075999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>310</v>
       </c>
@@ -1318,4 +1331,560 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="C1">
+        <f>(1/B1)</f>
+        <v>1.0273268954181221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>1.027327*A4</f>
+        <v>10.27327</v>
+      </c>
+      <c r="C4">
+        <f>(57/1)*(A4/1000)</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(57/1)*(B4/1000)</f>
+        <v>0.58557638999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">1.027327*A5</f>
+        <v>20.54654</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D11" si="1">(57/1)*(A5/1000)</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1711527799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>30.819810000000004</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.71</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7567291700000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>41.09308</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3423055599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>51.366350000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9278819500000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>102.73270000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8557639000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>205.46540000000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>11.4</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.711527800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>308.19810000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>17.567291700000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>(57/100)*A18</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B57" si="2">(57/100)*A19</f>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>3.9899999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>7.4099999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>7.9799999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>10.829999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>11.969999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>14.249999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>14.819999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>15.389999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>15.959999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>16.529999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>17.099999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>17.669999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>18.809999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>21.659999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>22.229999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>22.799999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>